--- a/Data/Progress25.xlsx
+++ b/Data/Progress25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Capacity-building-summary\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\working-parties\iotc-data-section-activities\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CA861C-9AA5-4C49-990D-564CF5F57EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0633CC79-5AEB-441E-977B-FFC29EB587D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4E145BA-30A2-4F20-863C-706A2922F584}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B4E145BA-30A2-4F20-863C-706A2922F584}"/>
   </bookViews>
   <sheets>
     <sheet name="progress" sheetId="2" r:id="rId1"/>
@@ -41,28 +41,10 @@
     <t>Data reporting (to the IOTC Secretariat)</t>
   </si>
   <si>
-    <t xml:space="preserve">WPDCS program of work </t>
-  </si>
-  <si>
-    <t>Update:  The Commission ENDORSED the Scientific Committee’s 2023 list of recommendations as its own.</t>
-  </si>
-  <si>
     <t>Update: None</t>
   </si>
   <si>
-    <t xml:space="preserve">Review of the draft, and adoption of the report of the 19th Session of the WPDCS </t>
-  </si>
-  <si>
-    <t>Recommendations</t>
-  </si>
-  <si>
-    <t>Type_recomm</t>
-  </si>
-  <si>
     <t>Progress</t>
-  </si>
-  <si>
-    <t>Main_topic</t>
   </si>
   <si>
     <t xml:space="preserve">SC ENDORSING the proposed general methodology, NOTED that there still are issues in some of the species-specific reconstructed historical time series
@@ -79,28 +61,6 @@
   </si>
   <si>
     <t>the SC ENDORSED the request of setting up an intersessional working group</t>
-  </si>
-  <si>
-    <t>WPDCS19_REC</t>
-  </si>
-  <si>
-    <t>WPDCS20.01 (para. 16)</t>
-  </si>
-  <si>
-    <t>NOTING a lack of clarity and inconsistencies in certain CMMs, the WPDCS RECOMMENDED that the SC consider and endorse the following revisions for submission to the Commission:
-•	Res. 15/01. Annex 2 should be revised to align with the provisions of Res. 15/02, which mandates data collection and reporting at the species level, regardless of the fishing gear used
-•	Res. 15/02. The spatial resolution of geo-referenced catch, effort, and size frequency data for coastal fisheries should be clearly defined and aligned, i.e., size-frequency data shall be provided using an alternative geographical area if it better represents the fishery concerned.
-•	Res. 19/07. The content, format, and timeline for datasets to be collected and reported by the chartering CPC should be clearly specified
-•	Res. 24/02. The reporting of buoy purchases to the IOTC and their incorporation into the compliance assessment procedure should be clearly specified
-•	Res. 24/04.
-o	The spatio-temporal resolution of reported observer data should be aligned with the IOTC observer reporting templates and standards, as originally established in 21/04.
-o	The timeliness for reporting fisheries observer reports and data collected through the ROS should be harmonised with those for the main IOTC datasets. Specifically, each CPC shall submit observer data collected during a year to the IOTC Secretariat by 30 June of the following year. For longline fisheries, final data shall be submitted no later than 30 December.</t>
-  </si>
-  <si>
-    <t>WPDCS20.02 (para. 21)</t>
-  </si>
-  <si>
-    <t>The WPDCS ACKNOWLEDGED the benefits of a climate-ocean web portal for the IOTC Area of Competence and RECOMMENDED the development and implementation of the online digital Indian Ocean Atlas in 2025.current differences between revised official national catch statistics and scientific best estimates used for supporting the IOTC science process and decision-making.</t>
   </si>
   <si>
     <t>Environmental data (to SC)</t>
@@ -118,111 +78,140 @@
 •	That the SC ADVISE the Commission to take actions for all CPCs to ensure that the Record of Authorised Vessels (RAV) details are completely accurate and up to date.</t>
   </si>
   <si>
-    <t>The WPDCS ENDORSED the methodology and results used to re-estimate Indonesia's historical catches for the period 1950–2022 and RECOMMENDED that the SC also endorse them.</t>
-  </si>
-  <si>
-    <t>WPDCS20.04 (para. 132)</t>
-  </si>
-  <si>
     <t>Regional observer programmes (ROS)</t>
   </si>
   <si>
-    <t>WPDCS20.3 (para. 103)</t>
-  </si>
-  <si>
-    <t>WPDCS20.05 (para. 140)</t>
-  </si>
-  <si>
-    <t>The WPDCS DISCUSSED and REVISED the summary on best practices guidelines for safe handling and release of small cetaceans and RECOMMENDED the SC to advise the Commission to consider these guidelines when developing conservation measures for cetaceans.</t>
-  </si>
-  <si>
-    <t>WPDCS20.06 (para. 171)</t>
-  </si>
-  <si>
-    <t>WPDCS20.07 (para. 174)</t>
-  </si>
-  <si>
     <t>The WPDCS RECOMMENDED that the Scientific Committee consider the consolidated set of recommendations arising from WPDCS20, as detailed in Appendix VI</t>
   </si>
   <si>
-    <t>The WPDCS RECOMMENDED that the SC consider and endorse the WPDCS Programme of Work (2025-2029), as detailed in Appendix V.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updates:  NOTING a lack of clarity and inconsistencies in the aforementioned CMMs, The SC requested CPC to take into considerations these points when proposing potential revisions of these CMMs. </t>
-  </si>
-  <si>
-    <t>SC27
-(para. 132)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update: The SC CONGRATULATED Indonesia for its efforts to address the requests made at the 26th session of the SC, resulting in a revised catch time series covering the period 1950-2022. The SC NOTED that the WPDCS has ENDORSED the methodology and results used to re-estimate Indonesia's historical catches for the period 1950–2022 and AGREED to endorse them as well. </t>
-  </si>
-  <si>
-    <t>SC27
-(para. 137)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update:   The SC NOTED that the WPDCS had discussed and reviewed the summary on best practice guidelines for safe handling and release of small cetaceans and the SC RECOMMENDED the Commission to consider these guidelines when developing conservation measures for cetaceans. </t>
-  </si>
-  <si>
-    <t>SC27
-(para. 141)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update:  The SC NOTED the project initiated by France-OT to develop an online digital ocean atlas covering the IOTC Area of Competence, which was also presented at the 2024 sessions of the WPEB and WPTT. The atlas aims to support the objectives of Resolution 24/01 by serving as a tool to assess the impacts of climate change on IOTC fisheries. The SC AGREED on the significant value of this digital atlas in supporting the Commission's work and ACKNOWLEDGED that the project will be developed over six months by an expert team. Additionally, the SC THANKED Sri Lanka for its commitment to hosting the web portal and ensuring the long-term operation and maintenance of the atlas (see document IOTC-2024-SC27-INF04). </t>
-  </si>
-  <si>
-    <t>SC27
-(para. 140)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update:  The SC AGREED on the consolidated table of priorities across all working parties (Table 3), as developed by each working party Chairperson, and REQUESTED that the IOTC Secretariat, in consultation with the Chairpersons and vice-Chairpersons of the SC and relevant working parties, develop ToRs for the specific projects to be carried out. </t>
-  </si>
-  <si>
-    <t>SC27
-(para. 196)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update: The SC REQUESTED the WPDCS to undertake an online intersessional review in collaboration with the IOTC Secretariat to check and where necessary amend field definitions and reporting requirements to ensure that they appropriately recognise (where necessary) the potential use of additional ROS data collection tools (e.g., EM and port sampling) and are otherwise also clear and easy to understand for observers. </t>
-  </si>
-  <si>
-    <t>SC27
-(para. 145)</t>
-  </si>
-  <si>
     <t>Update: The SC RECOMMENDED that the Commission consider the consolidated set of recommendations arising from SC26, provided at Appendix 39</t>
   </si>
   <si>
-    <t>SC27
-(para. 214)</t>
-  </si>
-  <si>
-    <t>SC27</t>
-  </si>
-  <si>
-    <t>Response / follow-up by the SC27</t>
-  </si>
-  <si>
-    <t>Commission response / suggestions for consideration at WPDCS20</t>
-  </si>
-  <si>
-    <t>S29
-(para. 33)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update: The Commission ACKNOWLEDGED that Indonesia has completed the work undertaken to re-estimate the tuna catches from Indonesian fisheries. The revised catches have been endorsed by the WPDCS and SC. The Commission NOTED that given the importance of Indonesia’s fisheries and their large volume of tuna catches, this catch reconstruction work is important to the scientific work of this Commission. The Commission also REQUESTED Indonesia to work with the Secretariat and to ensure that the estimation methodologies are automated. The Commission also NOTED the need for other fishing fleets such as Oman, which the Commission has raised concerns regarding the reported catch data, to initiate and undergo a similar process to reconstruct the catch data.  
-</t>
-  </si>
-  <si>
-    <t>S29
-(para. 42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update: The basis of this resolution was Proposal M which provided revisions to Resolution 24/04.  </t>
-  </si>
-  <si>
-    <t>S29
-(para. 37)</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>WPDCS</t>
+  </si>
+  <si>
+    <t>Recommendation</t>
+  </si>
+  <si>
+    <t>Report adoption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WPDCS programme of work </t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>S29 (para. 37)</t>
+  </si>
+  <si>
+    <t>S29 (para. 42)</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>Main topic</t>
+  </si>
+  <si>
+    <t>Response / Follow-up by the Commission</t>
+  </si>
+  <si>
+    <t>WPDCS20.01 (16)</t>
+  </si>
+  <si>
+    <t>WPDCS20.02 (21)</t>
+  </si>
+  <si>
+    <t>WPDCS20.3 (103)</t>
+  </si>
+  <si>
+    <t>WPDCS20.04 (132)</t>
+  </si>
+  <si>
+    <t>WPDCS20.05 (140)</t>
+  </si>
+  <si>
+    <t>WPDCS20.06 (171)</t>
+  </si>
+  <si>
+    <t>WPDCS20.07 (174)</t>
+  </si>
+  <si>
+    <t>SC27 (132)</t>
+  </si>
+  <si>
+    <t>SC27 (140)</t>
+  </si>
+  <si>
+    <t>SC27 (137)</t>
+  </si>
+  <si>
+    <t>SC27 (145)</t>
+  </si>
+  <si>
+    <t>SC27 (141)</t>
+  </si>
+  <si>
+    <t>SC27 (196)</t>
+  </si>
+  <si>
+    <t>SC27 (214)</t>
+  </si>
+  <si>
+    <t>Response / follow-up by the Scientific Committee</t>
+  </si>
+  <si>
+    <t>Updates:  NOTING a lack of clarity and inconsistencies in the aforementioned CMMs, The SC requested CPC to take into considerations these points when proposing potential revisions of these CMMs</t>
+  </si>
+  <si>
+    <t>Update:  The SC NOTED the project initiated by France-OT to develop an online digital ocean atlas covering the IOTC Area of Competence, which was also presented at the 2024 sessions of the WPEB and WPTT. The atlas aims to support the objectives of Resolution 24/01 by serving as a tool to assess the impacts of climate change on IOTC fisheries. The SC AGREED on the significant value of this digital atlas in supporting the Commission's work and ACKNOWLEDGED that the project will be developed over six months by an expert team. Additionally, the SC THANKED Sri Lanka for its commitment to hosting the web portal and ensuring the long-term operation and maintenance of the atlas (see document IOTC-2024-SC27-INF04)</t>
+  </si>
+  <si>
+    <t>Update: The SC CONGRATULATED Indonesia for its efforts to address the requests made at the 26th session of the SC, resulting in a revised catch time series covering the period 1950-2022. The SC NOTED that the WPDCS has ENDORSED the methodology and results used to re-estimate Indonesia's historical catches for the period 1950–2022 and AGREED to endorse them as well</t>
+  </si>
+  <si>
+    <t>Update: The SC REQUESTED the WPDCS to undertake an online intersessional review in collaboration with the IOTC Secretariat to check and where necessary amend field definitions and reporting requirements to ensure that they appropriately recognise (where necessary) the potential use of additional ROS data collection tools (e.g., EM and port sampling) and are otherwise also clear and easy to understand for observers</t>
+  </si>
+  <si>
+    <t>Update:   The SC NOTED that the WPDCS had discussed and reviewed the summary on best practice guidelines for safe handling and release of small cetaceans and the SC RECOMMENDED the Commission to consider these guidelines when developing conservation measures for cetaceans</t>
+  </si>
+  <si>
+    <t>Update:  The SC AGREED on the consolidated table of priorities across all working parties (Table 3), as developed by each working party Chairperson, and REQUESTED that the IOTC Secretariat, in consultation with the Chairpersons and vice-Chairpersons of the SC and relevant working parties, develop ToRs for the specific projects to be carried out</t>
+  </si>
+  <si>
+    <t>Update: The Commission ACKNOWLEDGED that Indonesia has completed the work undertaken to re-estimate the tuna catches from Indonesian fisheries. The revised catches have been endorsed by the WPDCS and SC. The Commission NOTED that given the importance of Indonesia’s fisheries and their large volume of tuna catches, this catch reconstruction work is important to the scientific work of this Commission. The Commission also REQUESTED Indonesia to work with the Secretariat and to ensure that the estimation methodologies are automated. The Commission also NOTED the need for other fishing fleets such as Oman, which the Commission has raised concerns regarding the reported catch data, to initiate and undergo a similar process to reconstruct the catch data</t>
+  </si>
+  <si>
+    <t>Update: The basis of this resolution was Proposal M which provided revisions to Resolution 24/04</t>
+  </si>
+  <si>
+    <t>Update:  The Commission ENDORSED the Scientific Committee’s 2023 list of recommendations as its own</t>
+  </si>
+  <si>
+    <t>NOTING a lack of clarity and inconsistencies in certain CMMs, the WPDCS RECOMMENDED that the SC consider and endorse the following revisions for submission to the Commission:
+•	Res. 15/01. Annex 2 should be revised to align with the provisions of Res. 15/02, which mandates data collection and reporting at the species level, regardless of the fishing gear used
+•	Res. 15/02. The spatial resolution of geo-referenced catch, effort, and size frequency data for coastal fisheries should be clearly defined and aligned, i.e., size-frequency data shall be provided using an alternative geographical area if it better represents the fishery concerned
+•	Res. 19/07. The content, format, and timeline for datasets to be collected and reported by the chartering CPC should be clearly specified
+•	Res. 24/02. The reporting of buoy purchases to the IOTC and their incorporation into the compliance assessment procedure should be clearly specified
+•	Res. 24/04
+o	The spatio-temporal resolution of reported observer data should be aligned with the IOTC observer reporting templates and standards, as originally established in 21/04
+o	The timeliness for reporting fisheries observer reports and data collected through the ROS should be harmonised with those for the main IOTC datasets. Specifically, each CPC shall submit observer data collected during a year to the IOTC Secretariat by 30 June of the following year. For longline fisheries, final data shall be submitted no later than 30 December</t>
+  </si>
+  <si>
+    <t>The WPDCS ACKNOWLEDGED the benefits of a climate-ocean web portal for the IOTC Area of Competence and RECOMMENDED the development and implementation of the online digital Indian Ocean Atlas in 2025.current differences between revised official national catch statistics and scientific best estimates used for supporting the IOTC science process and decision-making</t>
+  </si>
+  <si>
+    <t>The WPDCS ENDORSED the methodology and results used to re-estimate Indonesia's historical catches for the period 1950–2022 and RECOMMENDED that the SC also endorse them</t>
+  </si>
+  <si>
+    <t>The WPDCS DISCUSSED and REVISED the summary on best practices guidelines for safe handling and release of small cetaceans and RECOMMENDED the SC to advise the Commission to consider these guidelines when developing conservation measures for cetaceans</t>
+  </si>
+  <si>
+    <t>The WPDCS RECOMMENDED that the SC consider and endorse the WPDCS Programme of Work (2025-2029), as detailed in Appendix V</t>
   </si>
 </sst>
 </file>
@@ -238,47 +227,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB3E5A1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE59EDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF45B0E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -286,64 +255,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,212 +611,220 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0377587-E7EC-4EF3-B47E-11EB03D1CF52}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="169.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="175.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="126" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="112" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="I5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" ht="255" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="195" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="5" customFormat="1" ht="255" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" s="5" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
